--- a/Bibsam_tidskriftslistor/scifree_data_sage.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_sage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{445A8417-BC76-4493-9E88-8066F994CF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{775D8DFE-96EB-49FF-BCC2-E328BC2514F4}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{445A8417-BC76-4493-9E88-8066F994CF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31D3C7C6-3C67-423A-9C64-77E076805261}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5B0DF44-151A-49FD-B420-5C1B1A288218}"/>
   </bookViews>
@@ -12305,9 +12305,6 @@
     <t>https://journals.sagepub.com/home/SEL</t>
   </si>
   <si>
-    <t>Simulation Councils Inc. (2002)</t>
-  </si>
-  <si>
     <t>1741-3133</t>
   </si>
   <si>
@@ -14526,6 +14523,9 @@
   </si>
   <si>
     <t>2572-6641</t>
+  </si>
+  <si>
+    <t>Simulation Councils Inc.</t>
   </si>
 </sst>
 </file>
@@ -14572,10 +14572,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14912,7 +14911,7 @@
   <dimension ref="A1:G1160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15319,16 +15318,16 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
+        <v>4808</v>
+      </c>
+      <c r="C18" t="s">
         <v>4809</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>4810</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>4811</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4812</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -16316,16 +16315,16 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
+        <v>4812</v>
+      </c>
+      <c r="C62" t="s">
         <v>4813</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>4814</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>4815</v>
-      </c>
-      <c r="E62" t="s">
-        <v>4816</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -20162,13 +20161,13 @@
         <v>7</v>
       </c>
       <c r="B233" t="s">
+        <v>4816</v>
+      </c>
+      <c r="D233" t="s">
         <v>4817</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>4818</v>
-      </c>
-      <c r="E233" t="s">
-        <v>4819</v>
       </c>
       <c r="F233" t="s">
         <v>12</v>
@@ -33235,10 +33234,10 @@
         <v>7</v>
       </c>
       <c r="B810" t="s">
+        <v>4827</v>
+      </c>
+      <c r="C810" t="s">
         <v>4828</v>
-      </c>
-      <c r="C810" t="s">
-        <v>4829</v>
       </c>
       <c r="D810" t="s">
         <v>3367</v>
@@ -33258,16 +33257,16 @@
         <v>7</v>
       </c>
       <c r="B811" t="s">
+        <v>4819</v>
+      </c>
+      <c r="C811" t="s">
         <v>4820</v>
       </c>
-      <c r="C811" t="s">
+      <c r="D811" t="s">
         <v>4821</v>
       </c>
-      <c r="D811" t="s">
+      <c r="E811" t="s">
         <v>4822</v>
-      </c>
-      <c r="E811" t="s">
-        <v>4823</v>
       </c>
       <c r="F811" t="s">
         <v>12</v>
@@ -37259,19 +37258,19 @@
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
+        <v>4829</v>
+      </c>
+      <c r="B989" t="s">
         <v>4089</v>
       </c>
-      <c r="B989" t="s">
+      <c r="C989" t="s">
         <v>4090</v>
       </c>
-      <c r="C989" t="s">
+      <c r="D989" t="s">
         <v>4091</v>
       </c>
-      <c r="D989" t="s">
+      <c r="E989" t="s">
         <v>4092</v>
-      </c>
-      <c r="E989" t="s">
-        <v>4093</v>
       </c>
       <c r="F989" t="s">
         <v>12</v>
@@ -37285,16 +37284,16 @@
         <v>7</v>
       </c>
       <c r="B990" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C990" t="s">
         <v>4094</v>
       </c>
-      <c r="C990" t="s">
+      <c r="D990" t="s">
         <v>4095</v>
       </c>
-      <c r="D990" t="s">
+      <c r="E990" t="s">
         <v>4096</v>
-      </c>
-      <c r="E990" t="s">
-        <v>4097</v>
       </c>
       <c r="F990" t="s">
         <v>12</v>
@@ -37305,19 +37304,19 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B991" t="s">
         <v>4098</v>
       </c>
-      <c r="B991" t="s">
+      <c r="C991" t="s">
         <v>4099</v>
       </c>
-      <c r="C991" t="s">
+      <c r="D991" t="s">
         <v>4100</v>
       </c>
-      <c r="D991" t="s">
+      <c r="E991" t="s">
         <v>4101</v>
-      </c>
-      <c r="E991" t="s">
-        <v>4102</v>
       </c>
       <c r="F991" t="s">
         <v>12</v>
@@ -37331,16 +37330,16 @@
         <v>7</v>
       </c>
       <c r="B992" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C992" t="s">
         <v>4103</v>
       </c>
-      <c r="C992" t="s">
+      <c r="D992" t="s">
         <v>4104</v>
       </c>
-      <c r="D992" t="s">
+      <c r="E992" t="s">
         <v>4105</v>
-      </c>
-      <c r="E992" t="s">
-        <v>4106</v>
       </c>
       <c r="F992" t="s">
         <v>12</v>
@@ -37354,16 +37353,16 @@
         <v>7</v>
       </c>
       <c r="B993" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C993" t="s">
         <v>4107</v>
       </c>
-      <c r="C993" t="s">
+      <c r="D993" t="s">
         <v>4108</v>
       </c>
-      <c r="D993" t="s">
+      <c r="E993" t="s">
         <v>4109</v>
-      </c>
-      <c r="E993" t="s">
-        <v>4110</v>
       </c>
       <c r="F993" t="s">
         <v>12</v>
@@ -37374,19 +37373,19 @@
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B994" t="s">
         <v>4111</v>
       </c>
-      <c r="B994" t="s">
+      <c r="C994" t="s">
         <v>4112</v>
       </c>
-      <c r="C994" t="s">
+      <c r="D994" t="s">
         <v>4113</v>
       </c>
-      <c r="D994" t="s">
+      <c r="E994" t="s">
         <v>4114</v>
-      </c>
-      <c r="E994" t="s">
-        <v>4115</v>
       </c>
       <c r="F994" t="s">
         <v>12</v>
@@ -37397,19 +37396,19 @@
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B995" t="s">
         <v>4116</v>
       </c>
-      <c r="B995" t="s">
+      <c r="C995" t="s">
         <v>4117</v>
       </c>
-      <c r="C995" t="s">
+      <c r="D995" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E995" t="s">
         <v>4118</v>
-      </c>
-      <c r="D995" t="s">
-        <v>4116</v>
-      </c>
-      <c r="E995" t="s">
-        <v>4119</v>
       </c>
       <c r="F995" t="s">
         <v>12</v>
@@ -37420,19 +37419,19 @@
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B996" t="s">
         <v>4120</v>
       </c>
-      <c r="B996" t="s">
+      <c r="C996" t="s">
         <v>4121</v>
       </c>
-      <c r="C996" t="s">
+      <c r="D996" t="s">
         <v>4122</v>
       </c>
-      <c r="D996" t="s">
+      <c r="E996" t="s">
         <v>4123</v>
-      </c>
-      <c r="E996" t="s">
-        <v>4124</v>
       </c>
       <c r="F996" t="s">
         <v>12</v>
@@ -37443,19 +37442,19 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
+        <v>4124</v>
+      </c>
+      <c r="B997" t="s">
         <v>4125</v>
       </c>
-      <c r="B997" t="s">
+      <c r="C997" t="s">
         <v>4126</v>
       </c>
-      <c r="C997" t="s">
+      <c r="D997" t="s">
         <v>4127</v>
       </c>
-      <c r="D997" t="s">
+      <c r="E997" t="s">
         <v>4128</v>
-      </c>
-      <c r="E997" t="s">
-        <v>4129</v>
       </c>
       <c r="F997" t="s">
         <v>12</v>
@@ -37469,13 +37468,13 @@
         <v>7</v>
       </c>
       <c r="B998" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D998" t="s">
         <v>4130</v>
       </c>
-      <c r="D998" t="s">
+      <c r="E998" t="s">
         <v>4131</v>
-      </c>
-      <c r="E998" t="s">
-        <v>4132</v>
       </c>
       <c r="F998" t="s">
         <v>30</v>
@@ -37486,19 +37485,19 @@
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B999" t="s">
         <v>4133</v>
       </c>
-      <c r="B999" t="s">
+      <c r="C999" t="s">
         <v>4134</v>
       </c>
-      <c r="C999" t="s">
+      <c r="D999" t="s">
         <v>4135</v>
       </c>
-      <c r="D999" t="s">
+      <c r="E999" t="s">
         <v>4136</v>
-      </c>
-      <c r="E999" t="s">
-        <v>4137</v>
       </c>
       <c r="F999" t="s">
         <v>12</v>
@@ -37512,16 +37511,16 @@
         <v>196</v>
       </c>
       <c r="B1000" t="s">
+        <v>4137</v>
+      </c>
+      <c r="C1000" t="s">
         <v>4138</v>
       </c>
-      <c r="C1000" t="s">
+      <c r="D1000" t="s">
         <v>4139</v>
       </c>
-      <c r="D1000" t="s">
+      <c r="E1000" t="s">
         <v>4140</v>
-      </c>
-      <c r="E1000" t="s">
-        <v>4141</v>
       </c>
       <c r="F1000" t="s">
         <v>12</v>
@@ -37535,16 +37534,16 @@
         <v>7</v>
       </c>
       <c r="B1001" t="s">
+        <v>4141</v>
+      </c>
+      <c r="C1001" t="s">
         <v>4142</v>
       </c>
-      <c r="C1001" t="s">
+      <c r="D1001" t="s">
         <v>4143</v>
       </c>
-      <c r="D1001" t="s">
+      <c r="E1001" t="s">
         <v>4144</v>
-      </c>
-      <c r="E1001" t="s">
-        <v>4145</v>
       </c>
       <c r="F1001" t="s">
         <v>12</v>
@@ -37555,19 +37554,19 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B1002" t="s">
         <v>4146</v>
       </c>
-      <c r="B1002" t="s">
+      <c r="C1002" t="s">
         <v>4147</v>
       </c>
-      <c r="C1002" t="s">
+      <c r="D1002" t="s">
         <v>4148</v>
       </c>
-      <c r="D1002" t="s">
+      <c r="E1002" t="s">
         <v>4149</v>
-      </c>
-      <c r="E1002" t="s">
-        <v>4150</v>
       </c>
       <c r="F1002" t="s">
         <v>12</v>
@@ -37581,16 +37580,16 @@
         <v>7</v>
       </c>
       <c r="B1003" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C1003" t="s">
         <v>4151</v>
       </c>
-      <c r="C1003" t="s">
+      <c r="D1003" t="s">
         <v>4152</v>
       </c>
-      <c r="D1003" t="s">
+      <c r="E1003" t="s">
         <v>4153</v>
-      </c>
-      <c r="E1003" t="s">
-        <v>4154</v>
       </c>
       <c r="F1003" t="s">
         <v>12</v>
@@ -37601,19 +37600,19 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B1004" t="s">
         <v>4155</v>
       </c>
-      <c r="B1004" t="s">
+      <c r="C1004" t="s">
         <v>4156</v>
       </c>
-      <c r="C1004" t="s">
+      <c r="D1004" t="s">
         <v>4157</v>
       </c>
-      <c r="D1004" t="s">
+      <c r="E1004" t="s">
         <v>4158</v>
-      </c>
-      <c r="E1004" t="s">
-        <v>4159</v>
       </c>
       <c r="F1004" t="s">
         <v>12</v>
@@ -37627,16 +37626,16 @@
         <v>196</v>
       </c>
       <c r="B1005" t="s">
+        <v>4159</v>
+      </c>
+      <c r="C1005" t="s">
         <v>4160</v>
       </c>
-      <c r="C1005" t="s">
+      <c r="D1005" t="s">
         <v>4161</v>
       </c>
-      <c r="D1005" t="s">
+      <c r="E1005" t="s">
         <v>4162</v>
-      </c>
-      <c r="E1005" t="s">
-        <v>4163</v>
       </c>
       <c r="F1005" t="s">
         <v>12</v>
@@ -37647,19 +37646,19 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B1006" t="s">
         <v>4164</v>
       </c>
-      <c r="B1006" t="s">
+      <c r="C1006" t="s">
         <v>4165</v>
       </c>
-      <c r="C1006" t="s">
+      <c r="D1006" t="s">
         <v>4166</v>
       </c>
-      <c r="D1006" t="s">
+      <c r="E1006" t="s">
         <v>4167</v>
-      </c>
-      <c r="E1006" t="s">
-        <v>4168</v>
       </c>
       <c r="F1006" t="s">
         <v>12</v>
@@ -37673,16 +37672,16 @@
         <v>196</v>
       </c>
       <c r="B1007" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C1007" t="s">
         <v>4169</v>
       </c>
-      <c r="C1007" t="s">
+      <c r="D1007" t="s">
         <v>4170</v>
       </c>
-      <c r="D1007" t="s">
+      <c r="E1007" t="s">
         <v>4171</v>
-      </c>
-      <c r="E1007" t="s">
-        <v>4172</v>
       </c>
       <c r="F1007" t="s">
         <v>12</v>
@@ -37696,16 +37695,16 @@
         <v>7</v>
       </c>
       <c r="B1008" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C1008" t="s">
         <v>4173</v>
       </c>
-      <c r="C1008" t="s">
+      <c r="D1008" t="s">
         <v>4174</v>
       </c>
-      <c r="D1008" t="s">
+      <c r="E1008" t="s">
         <v>4175</v>
-      </c>
-      <c r="E1008" t="s">
-        <v>4176</v>
       </c>
       <c r="F1008" t="s">
         <v>12</v>
@@ -37716,19 +37715,19 @@
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B1009" t="s">
         <v>4177</v>
       </c>
-      <c r="B1009" t="s">
+      <c r="C1009" t="s">
         <v>4178</v>
       </c>
-      <c r="C1009" t="s">
+      <c r="D1009" t="s">
         <v>4179</v>
       </c>
-      <c r="D1009" t="s">
+      <c r="E1009" t="s">
         <v>4180</v>
-      </c>
-      <c r="E1009" t="s">
-        <v>4181</v>
       </c>
       <c r="F1009" t="s">
         <v>12</v>
@@ -37739,16 +37738,16 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B1010" t="s">
         <v>4182</v>
       </c>
-      <c r="B1010" t="s">
+      <c r="D1010" t="s">
         <v>4183</v>
       </c>
-      <c r="D1010" t="s">
+      <c r="E1010" t="s">
         <v>4184</v>
-      </c>
-      <c r="E1010" t="s">
-        <v>4185</v>
       </c>
       <c r="F1010" t="s">
         <v>12</v>
@@ -37759,19 +37758,19 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B1011" t="s">
         <v>4186</v>
       </c>
-      <c r="B1011" t="s">
+      <c r="C1011" t="s">
         <v>4187</v>
       </c>
-      <c r="C1011" t="s">
+      <c r="D1011" t="s">
         <v>4188</v>
       </c>
-      <c r="D1011" t="s">
+      <c r="E1011" t="s">
         <v>4189</v>
-      </c>
-      <c r="E1011" t="s">
-        <v>4190</v>
       </c>
       <c r="F1011" t="s">
         <v>12</v>
@@ -37785,16 +37784,16 @@
         <v>196</v>
       </c>
       <c r="B1012" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C1012" t="s">
         <v>4191</v>
       </c>
-      <c r="C1012" t="s">
+      <c r="D1012" t="s">
         <v>4192</v>
       </c>
-      <c r="D1012" t="s">
+      <c r="E1012" t="s">
         <v>4193</v>
-      </c>
-      <c r="E1012" t="s">
-        <v>4194</v>
       </c>
       <c r="F1012" t="s">
         <v>12</v>
@@ -37805,19 +37804,19 @@
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B1013" t="s">
         <v>4195</v>
       </c>
-      <c r="B1013" t="s">
+      <c r="C1013" t="s">
         <v>4196</v>
       </c>
-      <c r="C1013" t="s">
+      <c r="D1013" t="s">
         <v>4197</v>
       </c>
-      <c r="D1013" t="s">
+      <c r="E1013" t="s">
         <v>4198</v>
-      </c>
-      <c r="E1013" t="s">
-        <v>4199</v>
       </c>
       <c r="F1013" t="s">
         <v>12</v>
@@ -37831,16 +37830,16 @@
         <v>196</v>
       </c>
       <c r="B1014" t="s">
+        <v>4199</v>
+      </c>
+      <c r="C1014" t="s">
         <v>4200</v>
       </c>
-      <c r="C1014" t="s">
+      <c r="D1014" t="s">
         <v>4201</v>
       </c>
-      <c r="D1014" t="s">
+      <c r="E1014" t="s">
         <v>4202</v>
-      </c>
-      <c r="E1014" t="s">
-        <v>4203</v>
       </c>
       <c r="F1014" t="s">
         <v>12</v>
@@ -37854,16 +37853,16 @@
         <v>196</v>
       </c>
       <c r="B1015" t="s">
+        <v>4203</v>
+      </c>
+      <c r="C1015" t="s">
         <v>4204</v>
       </c>
-      <c r="C1015" t="s">
+      <c r="D1015" t="s">
         <v>4205</v>
       </c>
-      <c r="D1015" t="s">
+      <c r="E1015" t="s">
         <v>4206</v>
-      </c>
-      <c r="E1015" t="s">
-        <v>4207</v>
       </c>
       <c r="F1015" t="s">
         <v>12</v>
@@ -37874,19 +37873,19 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B1016" t="s">
         <v>4208</v>
       </c>
-      <c r="B1016" t="s">
+      <c r="C1016" t="s">
         <v>4209</v>
       </c>
-      <c r="C1016" t="s">
+      <c r="D1016" t="s">
         <v>4210</v>
       </c>
-      <c r="D1016" t="s">
+      <c r="E1016" t="s">
         <v>4211</v>
-      </c>
-      <c r="E1016" t="s">
-        <v>4212</v>
       </c>
       <c r="F1016" t="s">
         <v>12</v>
@@ -37897,19 +37896,19 @@
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B1017" t="s">
         <v>4213</v>
       </c>
-      <c r="B1017" t="s">
+      <c r="C1017" t="s">
         <v>4214</v>
       </c>
-      <c r="C1017" t="s">
+      <c r="D1017" t="s">
         <v>4215</v>
       </c>
-      <c r="D1017" t="s">
+      <c r="E1017" t="s">
         <v>4216</v>
-      </c>
-      <c r="E1017" t="s">
-        <v>4217</v>
       </c>
       <c r="F1017" t="s">
         <v>12</v>
@@ -37923,16 +37922,16 @@
         <v>7</v>
       </c>
       <c r="B1018" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C1018" t="s">
         <v>4218</v>
       </c>
-      <c r="C1018" t="s">
+      <c r="D1018" t="s">
         <v>4219</v>
       </c>
-      <c r="D1018" t="s">
+      <c r="E1018" t="s">
         <v>4220</v>
-      </c>
-      <c r="E1018" t="s">
-        <v>4221</v>
       </c>
       <c r="F1018" t="s">
         <v>12</v>
@@ -37943,19 +37942,19 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B1019" t="s">
         <v>4222</v>
       </c>
-      <c r="B1019" t="s">
+      <c r="C1019" t="s">
         <v>4223</v>
       </c>
-      <c r="C1019" t="s">
+      <c r="D1019" t="s">
         <v>4224</v>
       </c>
-      <c r="D1019" t="s">
+      <c r="E1019" t="s">
         <v>4225</v>
-      </c>
-      <c r="E1019" t="s">
-        <v>4226</v>
       </c>
       <c r="F1019" t="s">
         <v>12</v>
@@ -37969,16 +37968,16 @@
         <v>7</v>
       </c>
       <c r="B1020" t="s">
+        <v>4226</v>
+      </c>
+      <c r="C1020" t="s">
         <v>4227</v>
       </c>
-      <c r="C1020" t="s">
+      <c r="D1020" t="s">
         <v>4228</v>
       </c>
-      <c r="D1020" t="s">
+      <c r="E1020" t="s">
         <v>4229</v>
-      </c>
-      <c r="E1020" t="s">
-        <v>4230</v>
       </c>
       <c r="F1020" t="s">
         <v>12</v>
@@ -37989,19 +37988,19 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B1021" t="s">
         <v>4231</v>
       </c>
-      <c r="B1021" t="s">
+      <c r="C1021" t="s">
         <v>4232</v>
       </c>
-      <c r="C1021" t="s">
+      <c r="D1021" t="s">
         <v>4233</v>
       </c>
-      <c r="D1021" t="s">
+      <c r="E1021" t="s">
         <v>4234</v>
-      </c>
-      <c r="E1021" t="s">
-        <v>4235</v>
       </c>
       <c r="F1021" t="s">
         <v>12</v>
@@ -38012,19 +38011,19 @@
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B1022" t="s">
         <v>4236</v>
       </c>
-      <c r="B1022" t="s">
+      <c r="C1022" t="s">
         <v>4237</v>
       </c>
-      <c r="C1022" t="s">
+      <c r="D1022" t="s">
         <v>4238</v>
       </c>
-      <c r="D1022" t="s">
+      <c r="E1022" t="s">
         <v>4239</v>
-      </c>
-      <c r="E1022" t="s">
-        <v>4240</v>
       </c>
       <c r="F1022" t="s">
         <v>12</v>
@@ -38038,16 +38037,16 @@
         <v>7</v>
       </c>
       <c r="B1023" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C1023" t="s">
         <v>4241</v>
       </c>
-      <c r="C1023" t="s">
+      <c r="D1023" t="s">
         <v>4242</v>
       </c>
-      <c r="D1023" t="s">
+      <c r="E1023" t="s">
         <v>4243</v>
-      </c>
-      <c r="E1023" t="s">
-        <v>4244</v>
       </c>
       <c r="F1023" t="s">
         <v>12</v>
@@ -38061,16 +38060,16 @@
         <v>183</v>
       </c>
       <c r="B1024" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C1024" t="s">
         <v>4245</v>
       </c>
-      <c r="C1024" t="s">
+      <c r="D1024" t="s">
         <v>4246</v>
       </c>
-      <c r="D1024" t="s">
+      <c r="E1024" t="s">
         <v>4247</v>
-      </c>
-      <c r="E1024" t="s">
-        <v>4248</v>
       </c>
       <c r="F1024" t="s">
         <v>12</v>
@@ -38084,16 +38083,16 @@
         <v>7</v>
       </c>
       <c r="B1025" t="s">
+        <v>4248</v>
+      </c>
+      <c r="C1025" t="s">
         <v>4249</v>
       </c>
-      <c r="C1025" t="s">
+      <c r="D1025" t="s">
         <v>4250</v>
       </c>
-      <c r="D1025" t="s">
+      <c r="E1025" t="s">
         <v>4251</v>
-      </c>
-      <c r="E1025" t="s">
-        <v>4252</v>
       </c>
       <c r="F1025" t="s">
         <v>12</v>
@@ -38107,16 +38106,16 @@
         <v>7</v>
       </c>
       <c r="B1026" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C1026" t="s">
         <v>4253</v>
       </c>
-      <c r="C1026" t="s">
+      <c r="D1026" t="s">
         <v>4254</v>
       </c>
-      <c r="D1026" t="s">
+      <c r="E1026" t="s">
         <v>4255</v>
-      </c>
-      <c r="E1026" t="s">
-        <v>4256</v>
       </c>
       <c r="F1026" t="s">
         <v>12</v>
@@ -38127,19 +38126,19 @@
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B1027" t="s">
         <v>4257</v>
       </c>
-      <c r="B1027" t="s">
+      <c r="C1027" t="s">
         <v>4258</v>
       </c>
-      <c r="C1027" t="s">
+      <c r="D1027" t="s">
         <v>4259</v>
       </c>
-      <c r="D1027" t="s">
+      <c r="E1027" t="s">
         <v>4260</v>
-      </c>
-      <c r="E1027" t="s">
-        <v>4261</v>
       </c>
       <c r="F1027" t="s">
         <v>12</v>
@@ -38153,16 +38152,16 @@
         <v>7</v>
       </c>
       <c r="B1028" t="s">
+        <v>4261</v>
+      </c>
+      <c r="C1028" t="s">
         <v>4262</v>
       </c>
-      <c r="C1028" t="s">
+      <c r="D1028" t="s">
         <v>4263</v>
       </c>
-      <c r="D1028" t="s">
+      <c r="E1028" t="s">
         <v>4264</v>
-      </c>
-      <c r="E1028" t="s">
-        <v>4265</v>
       </c>
       <c r="F1028" t="s">
         <v>12</v>
@@ -38176,16 +38175,16 @@
         <v>201</v>
       </c>
       <c r="B1029" t="s">
+        <v>4265</v>
+      </c>
+      <c r="C1029" t="s">
         <v>4266</v>
       </c>
-      <c r="C1029" t="s">
+      <c r="D1029" t="s">
         <v>4267</v>
       </c>
-      <c r="D1029" t="s">
+      <c r="E1029" t="s">
         <v>4268</v>
-      </c>
-      <c r="E1029" t="s">
-        <v>4269</v>
       </c>
       <c r="F1029" t="s">
         <v>12</v>
@@ -38199,16 +38198,16 @@
         <v>7</v>
       </c>
       <c r="B1030" t="s">
+        <v>4269</v>
+      </c>
+      <c r="C1030" t="s">
         <v>4270</v>
       </c>
-      <c r="C1030" t="s">
+      <c r="D1030" t="s">
         <v>4271</v>
       </c>
-      <c r="D1030" t="s">
+      <c r="E1030" t="s">
         <v>4272</v>
-      </c>
-      <c r="E1030" t="s">
-        <v>4273</v>
       </c>
       <c r="F1030" t="s">
         <v>12</v>
@@ -38222,16 +38221,16 @@
         <v>7</v>
       </c>
       <c r="B1031" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C1031" t="s">
         <v>4274</v>
       </c>
-      <c r="C1031" t="s">
+      <c r="D1031" t="s">
         <v>4275</v>
       </c>
-      <c r="D1031" t="s">
+      <c r="E1031" t="s">
         <v>4276</v>
-      </c>
-      <c r="E1031" t="s">
-        <v>4277</v>
       </c>
       <c r="F1031" t="s">
         <v>12</v>
@@ -38245,16 +38244,16 @@
         <v>7</v>
       </c>
       <c r="B1032" t="s">
+        <v>4277</v>
+      </c>
+      <c r="C1032" t="s">
         <v>4278</v>
       </c>
-      <c r="C1032" t="s">
+      <c r="D1032" t="s">
         <v>4279</v>
       </c>
-      <c r="D1032" t="s">
+      <c r="E1032" t="s">
         <v>4280</v>
-      </c>
-      <c r="E1032" t="s">
-        <v>4281</v>
       </c>
       <c r="F1032" t="s">
         <v>12</v>
@@ -38268,16 +38267,16 @@
         <v>2003</v>
       </c>
       <c r="B1033" t="s">
+        <v>4281</v>
+      </c>
+      <c r="C1033" t="s">
         <v>4282</v>
       </c>
-      <c r="C1033" t="s">
+      <c r="D1033" t="s">
         <v>4283</v>
       </c>
-      <c r="D1033" t="s">
+      <c r="E1033" t="s">
         <v>4284</v>
-      </c>
-      <c r="E1033" t="s">
-        <v>4285</v>
       </c>
       <c r="F1033" t="s">
         <v>12</v>
@@ -38288,19 +38287,19 @@
     </row>
     <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B1034" t="s">
         <v>4286</v>
       </c>
-      <c r="B1034" t="s">
+      <c r="C1034" t="s">
         <v>4287</v>
       </c>
-      <c r="C1034" t="s">
+      <c r="D1034" t="s">
         <v>4288</v>
       </c>
-      <c r="D1034" t="s">
+      <c r="E1034" t="s">
         <v>4289</v>
-      </c>
-      <c r="E1034" t="s">
-        <v>4290</v>
       </c>
       <c r="F1034" t="s">
         <v>12</v>
@@ -38314,16 +38313,16 @@
         <v>7</v>
       </c>
       <c r="B1035" t="s">
+        <v>4290</v>
+      </c>
+      <c r="C1035" t="s">
         <v>4291</v>
       </c>
-      <c r="C1035" t="s">
+      <c r="D1035" t="s">
         <v>4292</v>
       </c>
-      <c r="D1035" t="s">
+      <c r="E1035" t="s">
         <v>4293</v>
-      </c>
-      <c r="E1035" t="s">
-        <v>4294</v>
       </c>
       <c r="F1035" t="s">
         <v>12</v>
@@ -38334,19 +38333,19 @@
     </row>
     <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1036" t="s">
         <v>4295</v>
       </c>
-      <c r="B1036" t="s">
+      <c r="C1036" t="s">
         <v>4296</v>
       </c>
-      <c r="C1036" t="s">
+      <c r="D1036" t="s">
         <v>4297</v>
       </c>
-      <c r="D1036" t="s">
+      <c r="E1036" t="s">
         <v>4298</v>
-      </c>
-      <c r="E1036" t="s">
-        <v>4299</v>
       </c>
       <c r="F1036" t="s">
         <v>12</v>
@@ -38360,16 +38359,16 @@
         <v>7</v>
       </c>
       <c r="B1037" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C1037" t="s">
         <v>4300</v>
       </c>
-      <c r="C1037" t="s">
+      <c r="D1037" t="s">
         <v>4301</v>
       </c>
-      <c r="D1037" t="s">
+      <c r="E1037" t="s">
         <v>4302</v>
-      </c>
-      <c r="E1037" t="s">
-        <v>4303</v>
       </c>
       <c r="F1037" t="s">
         <v>12</v>
@@ -38380,19 +38379,19 @@
     </row>
     <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B1038" t="s">
         <v>4304</v>
       </c>
-      <c r="B1038" t="s">
+      <c r="C1038" t="s">
         <v>4305</v>
       </c>
-      <c r="C1038" t="s">
+      <c r="D1038" t="s">
         <v>4306</v>
       </c>
-      <c r="D1038" t="s">
+      <c r="E1038" t="s">
         <v>4307</v>
-      </c>
-      <c r="E1038" t="s">
-        <v>4308</v>
       </c>
       <c r="F1038" t="s">
         <v>12</v>
@@ -38406,13 +38405,13 @@
         <v>7</v>
       </c>
       <c r="B1039" t="s">
+        <v>4308</v>
+      </c>
+      <c r="D1039" t="s">
         <v>4309</v>
       </c>
-      <c r="D1039" t="s">
+      <c r="E1039" t="s">
         <v>4310</v>
-      </c>
-      <c r="E1039" t="s">
-        <v>4311</v>
       </c>
       <c r="F1039" t="s">
         <v>30</v>
@@ -38426,16 +38425,16 @@
         <v>7</v>
       </c>
       <c r="B1040" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C1040" t="s">
         <v>4312</v>
       </c>
-      <c r="C1040" t="s">
+      <c r="D1040" t="s">
         <v>4313</v>
       </c>
-      <c r="D1040" t="s">
+      <c r="E1040" t="s">
         <v>4314</v>
-      </c>
-      <c r="E1040" t="s">
-        <v>4315</v>
       </c>
       <c r="F1040" t="s">
         <v>12</v>
@@ -38449,16 +38448,16 @@
         <v>7</v>
       </c>
       <c r="B1041" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C1041" t="s">
         <v>4316</v>
       </c>
-      <c r="C1041" t="s">
+      <c r="D1041" t="s">
         <v>4317</v>
       </c>
-      <c r="D1041" t="s">
+      <c r="E1041" t="s">
         <v>4318</v>
-      </c>
-      <c r="E1041" t="s">
-        <v>4319</v>
       </c>
       <c r="F1041" t="s">
         <v>12</v>
@@ -38472,16 +38471,16 @@
         <v>7</v>
       </c>
       <c r="B1042" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C1042" t="s">
         <v>4320</v>
       </c>
-      <c r="C1042" t="s">
+      <c r="D1042" t="s">
         <v>4321</v>
       </c>
-      <c r="D1042" t="s">
+      <c r="E1042" t="s">
         <v>4322</v>
-      </c>
-      <c r="E1042" t="s">
-        <v>4323</v>
       </c>
       <c r="F1042" t="s">
         <v>12</v>
@@ -38492,19 +38491,19 @@
     </row>
     <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B1043" t="s">
         <v>4324</v>
       </c>
-      <c r="B1043" t="s">
+      <c r="C1043" t="s">
         <v>4325</v>
       </c>
-      <c r="C1043" t="s">
+      <c r="D1043" t="s">
         <v>4326</v>
       </c>
-      <c r="D1043" t="s">
+      <c r="E1043" t="s">
         <v>4327</v>
-      </c>
-      <c r="E1043" t="s">
-        <v>4328</v>
       </c>
       <c r="F1043" t="s">
         <v>12</v>
@@ -38518,16 +38517,16 @@
         <v>7</v>
       </c>
       <c r="B1044" t="s">
+        <v>4328</v>
+      </c>
+      <c r="C1044" t="s">
         <v>4329</v>
       </c>
-      <c r="C1044" t="s">
+      <c r="D1044" t="s">
         <v>4330</v>
       </c>
-      <c r="D1044" t="s">
+      <c r="E1044" t="s">
         <v>4331</v>
-      </c>
-      <c r="E1044" t="s">
-        <v>4332</v>
       </c>
       <c r="F1044" t="s">
         <v>12</v>
@@ -38541,16 +38540,16 @@
         <v>1289</v>
       </c>
       <c r="B1045" t="s">
+        <v>4332</v>
+      </c>
+      <c r="C1045" t="s">
         <v>4333</v>
       </c>
-      <c r="C1045" t="s">
+      <c r="D1045" t="s">
         <v>4334</v>
       </c>
-      <c r="D1045" t="s">
+      <c r="E1045" t="s">
         <v>4335</v>
-      </c>
-      <c r="E1045" t="s">
-        <v>4336</v>
       </c>
       <c r="F1045" t="s">
         <v>12</v>
@@ -38561,19 +38560,19 @@
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B1046" t="s">
         <v>4337</v>
       </c>
-      <c r="B1046" t="s">
+      <c r="C1046" t="s">
         <v>4338</v>
       </c>
-      <c r="C1046" t="s">
+      <c r="D1046" t="s">
         <v>4339</v>
       </c>
-      <c r="D1046" t="s">
+      <c r="E1046" t="s">
         <v>4340</v>
-      </c>
-      <c r="E1046" t="s">
-        <v>4341</v>
       </c>
       <c r="F1046" t="s">
         <v>12</v>
@@ -38584,19 +38583,19 @@
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B1047" t="s">
         <v>4342</v>
       </c>
-      <c r="B1047" t="s">
+      <c r="C1047" t="s">
         <v>4343</v>
       </c>
-      <c r="C1047" t="s">
+      <c r="D1047" t="s">
         <v>4344</v>
       </c>
-      <c r="D1047" t="s">
+      <c r="E1047" t="s">
         <v>4345</v>
-      </c>
-      <c r="E1047" t="s">
-        <v>4346</v>
       </c>
       <c r="F1047" t="s">
         <v>12</v>
@@ -38610,16 +38609,16 @@
         <v>196</v>
       </c>
       <c r="B1048" t="s">
+        <v>4346</v>
+      </c>
+      <c r="C1048" t="s">
         <v>4347</v>
       </c>
-      <c r="C1048" t="s">
+      <c r="D1048" t="s">
         <v>4348</v>
       </c>
-      <c r="D1048" t="s">
+      <c r="E1048" t="s">
         <v>4349</v>
-      </c>
-      <c r="E1048" t="s">
-        <v>4350</v>
       </c>
       <c r="F1048" t="s">
         <v>12</v>
@@ -38633,16 +38632,16 @@
         <v>7</v>
       </c>
       <c r="B1049" t="s">
+        <v>4350</v>
+      </c>
+      <c r="C1049" t="s">
         <v>4351</v>
       </c>
-      <c r="C1049" t="s">
+      <c r="D1049" t="s">
         <v>4352</v>
       </c>
-      <c r="D1049" t="s">
+      <c r="E1049" t="s">
         <v>4353</v>
-      </c>
-      <c r="E1049" t="s">
-        <v>4354</v>
       </c>
       <c r="F1049" t="s">
         <v>30</v>
@@ -38656,16 +38655,16 @@
         <v>7</v>
       </c>
       <c r="B1050" t="s">
+        <v>4354</v>
+      </c>
+      <c r="C1050" t="s">
         <v>4355</v>
       </c>
-      <c r="C1050" t="s">
+      <c r="D1050" t="s">
         <v>4356</v>
       </c>
-      <c r="D1050" t="s">
+      <c r="E1050" t="s">
         <v>4357</v>
-      </c>
-      <c r="E1050" t="s">
-        <v>4358</v>
       </c>
       <c r="F1050" t="s">
         <v>12</v>
@@ -38679,16 +38678,16 @@
         <v>7</v>
       </c>
       <c r="B1051" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C1051" t="s">
         <v>4359</v>
       </c>
-      <c r="C1051" t="s">
+      <c r="D1051" t="s">
         <v>4360</v>
       </c>
-      <c r="D1051" t="s">
+      <c r="E1051" t="s">
         <v>4361</v>
-      </c>
-      <c r="E1051" t="s">
-        <v>4362</v>
       </c>
       <c r="F1051" t="s">
         <v>12</v>
@@ -38699,19 +38698,19 @@
     </row>
     <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B1052" t="s">
         <v>4363</v>
       </c>
-      <c r="B1052" t="s">
+      <c r="C1052" t="s">
         <v>4364</v>
       </c>
-      <c r="C1052" t="s">
+      <c r="D1052" t="s">
         <v>4365</v>
       </c>
-      <c r="D1052" t="s">
+      <c r="E1052" t="s">
         <v>4366</v>
-      </c>
-      <c r="E1052" t="s">
-        <v>4367</v>
       </c>
       <c r="F1052" t="s">
         <v>12</v>
@@ -38725,16 +38724,16 @@
         <v>7</v>
       </c>
       <c r="B1053" t="s">
+        <v>4367</v>
+      </c>
+      <c r="C1053" t="s">
         <v>4368</v>
       </c>
-      <c r="C1053" t="s">
+      <c r="D1053" t="s">
         <v>4369</v>
       </c>
-      <c r="D1053" t="s">
+      <c r="E1053" t="s">
         <v>4370</v>
-      </c>
-      <c r="E1053" t="s">
-        <v>4371</v>
       </c>
       <c r="F1053" t="s">
         <v>12</v>
@@ -38748,16 +38747,16 @@
         <v>7</v>
       </c>
       <c r="B1054" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C1054" t="s">
         <v>4372</v>
       </c>
-      <c r="C1054" t="s">
+      <c r="D1054" t="s">
         <v>4373</v>
       </c>
-      <c r="D1054" t="s">
+      <c r="E1054" t="s">
         <v>4374</v>
-      </c>
-      <c r="E1054" t="s">
-        <v>4375</v>
       </c>
       <c r="F1054" t="s">
         <v>12</v>
@@ -38771,16 +38770,16 @@
         <v>3683</v>
       </c>
       <c r="B1055" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C1055" t="s">
         <v>4376</v>
       </c>
-      <c r="C1055" t="s">
+      <c r="D1055" t="s">
         <v>4377</v>
       </c>
-      <c r="D1055" t="s">
+      <c r="E1055" t="s">
         <v>4378</v>
-      </c>
-      <c r="E1055" t="s">
-        <v>4379</v>
       </c>
       <c r="F1055" t="s">
         <v>12</v>
@@ -38791,19 +38790,19 @@
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B1056" t="s">
         <v>4380</v>
       </c>
-      <c r="B1056" t="s">
+      <c r="C1056" t="s">
         <v>4381</v>
       </c>
-      <c r="C1056" t="s">
+      <c r="D1056" t="s">
         <v>4382</v>
       </c>
-      <c r="D1056" t="s">
+      <c r="E1056" t="s">
         <v>4383</v>
-      </c>
-      <c r="E1056" t="s">
-        <v>4384</v>
       </c>
       <c r="F1056" t="s">
         <v>12</v>
@@ -38814,19 +38813,19 @@
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B1057" t="s">
         <v>4385</v>
       </c>
-      <c r="B1057" t="s">
+      <c r="C1057" t="s">
         <v>4386</v>
       </c>
-      <c r="C1057" t="s">
+      <c r="D1057" t="s">
         <v>4387</v>
       </c>
-      <c r="D1057" t="s">
+      <c r="E1057" t="s">
         <v>4388</v>
-      </c>
-      <c r="E1057" t="s">
-        <v>4389</v>
       </c>
       <c r="F1057" t="s">
         <v>12</v>
@@ -38840,16 +38839,16 @@
         <v>7</v>
       </c>
       <c r="B1058" t="s">
+        <v>4389</v>
+      </c>
+      <c r="C1058" t="s">
         <v>4390</v>
       </c>
-      <c r="C1058" t="s">
+      <c r="D1058" t="s">
         <v>4391</v>
       </c>
-      <c r="D1058" t="s">
+      <c r="E1058" t="s">
         <v>4392</v>
-      </c>
-      <c r="E1058" t="s">
-        <v>4393</v>
       </c>
       <c r="F1058" t="s">
         <v>12</v>
@@ -38863,16 +38862,16 @@
         <v>7</v>
       </c>
       <c r="B1059" t="s">
+        <v>4393</v>
+      </c>
+      <c r="C1059" t="s">
         <v>4394</v>
       </c>
-      <c r="C1059" t="s">
+      <c r="D1059" t="s">
         <v>4395</v>
       </c>
-      <c r="D1059" t="s">
+      <c r="E1059" t="s">
         <v>4396</v>
-      </c>
-      <c r="E1059" t="s">
-        <v>4397</v>
       </c>
       <c r="F1059" t="s">
         <v>12</v>
@@ -38883,19 +38882,19 @@
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B1060" t="s">
         <v>4398</v>
       </c>
-      <c r="B1060" t="s">
+      <c r="C1060" t="s">
         <v>4399</v>
       </c>
-      <c r="C1060" t="s">
+      <c r="D1060" t="s">
         <v>4400</v>
       </c>
-      <c r="D1060" t="s">
+      <c r="E1060" t="s">
         <v>4401</v>
-      </c>
-      <c r="E1060" t="s">
-        <v>4402</v>
       </c>
       <c r="F1060" t="s">
         <v>12</v>
@@ -38909,16 +38908,16 @@
         <v>7</v>
       </c>
       <c r="B1061" t="s">
+        <v>4402</v>
+      </c>
+      <c r="C1061" t="s">
         <v>4403</v>
       </c>
-      <c r="C1061" t="s">
+      <c r="D1061" t="s">
         <v>4404</v>
       </c>
-      <c r="D1061" t="s">
+      <c r="E1061" t="s">
         <v>4405</v>
-      </c>
-      <c r="E1061" t="s">
-        <v>4406</v>
       </c>
       <c r="F1061" t="s">
         <v>12</v>
@@ -38932,16 +38931,16 @@
         <v>7</v>
       </c>
       <c r="B1062" t="s">
+        <v>4406</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>4406</v>
+      </c>
+      <c r="D1062" t="s">
         <v>4407</v>
       </c>
-      <c r="C1062" t="s">
-        <v>4407</v>
-      </c>
-      <c r="D1062" t="s">
+      <c r="E1062" t="s">
         <v>4408</v>
-      </c>
-      <c r="E1062" t="s">
-        <v>4409</v>
       </c>
       <c r="F1062" t="s">
         <v>30</v>
@@ -38955,16 +38954,16 @@
         <v>7</v>
       </c>
       <c r="B1063" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C1063" t="s">
         <v>4410</v>
       </c>
-      <c r="C1063" t="s">
+      <c r="D1063" t="s">
         <v>4411</v>
       </c>
-      <c r="D1063" t="s">
+      <c r="E1063" t="s">
         <v>4412</v>
-      </c>
-      <c r="E1063" t="s">
-        <v>4413</v>
       </c>
       <c r="F1063" t="s">
         <v>12</v>
@@ -38978,16 +38977,16 @@
         <v>7</v>
       </c>
       <c r="B1064" t="s">
+        <v>4413</v>
+      </c>
+      <c r="C1064" t="s">
         <v>4414</v>
       </c>
-      <c r="C1064" t="s">
+      <c r="D1064" t="s">
         <v>4415</v>
       </c>
-      <c r="D1064" t="s">
+      <c r="E1064" t="s">
         <v>4416</v>
-      </c>
-      <c r="E1064" t="s">
-        <v>4417</v>
       </c>
       <c r="F1064" t="s">
         <v>12</v>
@@ -39001,16 +39000,16 @@
         <v>7</v>
       </c>
       <c r="B1065" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C1065" t="s">
         <v>4418</v>
       </c>
-      <c r="C1065" t="s">
+      <c r="D1065" t="s">
         <v>4419</v>
       </c>
-      <c r="D1065" t="s">
+      <c r="E1065" t="s">
         <v>4420</v>
-      </c>
-      <c r="E1065" t="s">
-        <v>4421</v>
       </c>
       <c r="F1065" t="s">
         <v>12</v>
@@ -39021,19 +39020,19 @@
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B1066" t="s">
         <v>4422</v>
       </c>
-      <c r="B1066" t="s">
+      <c r="C1066" t="s">
         <v>4423</v>
       </c>
-      <c r="C1066" t="s">
+      <c r="D1066" t="s">
         <v>4424</v>
       </c>
-      <c r="D1066" t="s">
+      <c r="E1066" t="s">
         <v>4425</v>
-      </c>
-      <c r="E1066" t="s">
-        <v>4426</v>
       </c>
       <c r="F1066" t="s">
         <v>12</v>
@@ -39047,13 +39046,13 @@
         <v>7</v>
       </c>
       <c r="B1067" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D1067" t="s">
         <v>4427</v>
       </c>
-      <c r="D1067" t="s">
+      <c r="E1067" t="s">
         <v>4428</v>
-      </c>
-      <c r="E1067" t="s">
-        <v>4429</v>
       </c>
       <c r="F1067" t="s">
         <v>30</v>
@@ -39067,16 +39066,16 @@
         <v>7</v>
       </c>
       <c r="B1068" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C1068" t="s">
         <v>4430</v>
       </c>
-      <c r="C1068" t="s">
+      <c r="D1068" t="s">
         <v>4431</v>
       </c>
-      <c r="D1068" t="s">
+      <c r="E1068" t="s">
         <v>4432</v>
-      </c>
-      <c r="E1068" t="s">
-        <v>4433</v>
       </c>
       <c r="F1068" t="s">
         <v>12</v>
@@ -39087,19 +39086,19 @@
     </row>
     <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B1069" t="s">
         <v>4434</v>
       </c>
-      <c r="B1069" t="s">
+      <c r="C1069" t="s">
         <v>4435</v>
       </c>
-      <c r="C1069" t="s">
+      <c r="D1069" t="s">
         <v>4436</v>
       </c>
-      <c r="D1069" t="s">
+      <c r="E1069" t="s">
         <v>4437</v>
-      </c>
-      <c r="E1069" t="s">
-        <v>4438</v>
       </c>
       <c r="F1069" t="s">
         <v>12</v>
@@ -39113,16 +39112,16 @@
         <v>7</v>
       </c>
       <c r="B1070" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C1070" t="s">
         <v>4439</v>
       </c>
-      <c r="C1070" t="s">
+      <c r="D1070" t="s">
         <v>4440</v>
       </c>
-      <c r="D1070" t="s">
+      <c r="E1070" t="s">
         <v>4441</v>
-      </c>
-      <c r="E1070" t="s">
-        <v>4442</v>
       </c>
       <c r="F1070" t="s">
         <v>12</v>
@@ -39136,16 +39135,16 @@
         <v>7</v>
       </c>
       <c r="B1071" t="s">
+        <v>4442</v>
+      </c>
+      <c r="C1071" t="s">
         <v>4443</v>
       </c>
-      <c r="C1071" t="s">
+      <c r="D1071" t="s">
         <v>4444</v>
       </c>
-      <c r="D1071" t="s">
+      <c r="E1071" t="s">
         <v>4445</v>
-      </c>
-      <c r="E1071" t="s">
-        <v>4446</v>
       </c>
       <c r="F1071" t="s">
         <v>12</v>
@@ -39159,16 +39158,16 @@
         <v>7</v>
       </c>
       <c r="B1072" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C1072" t="s">
         <v>4447</v>
       </c>
-      <c r="C1072" t="s">
+      <c r="D1072" t="s">
         <v>4448</v>
       </c>
-      <c r="D1072" t="s">
+      <c r="E1072" t="s">
         <v>4449</v>
-      </c>
-      <c r="E1072" t="s">
-        <v>4450</v>
       </c>
       <c r="F1072" t="s">
         <v>12</v>
@@ -39182,16 +39181,16 @@
         <v>7</v>
       </c>
       <c r="B1073" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C1073" t="s">
         <v>4451</v>
       </c>
-      <c r="C1073" t="s">
+      <c r="D1073" t="s">
         <v>4452</v>
       </c>
-      <c r="D1073" t="s">
+      <c r="E1073" t="s">
         <v>4453</v>
-      </c>
-      <c r="E1073" t="s">
-        <v>4454</v>
       </c>
       <c r="F1073" t="s">
         <v>12</v>
@@ -39202,19 +39201,19 @@
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B1074" t="s">
         <v>4455</v>
       </c>
-      <c r="B1074" t="s">
+      <c r="C1074" t="s">
         <v>4456</v>
       </c>
-      <c r="C1074" t="s">
+      <c r="D1074" t="s">
         <v>4457</v>
       </c>
-      <c r="D1074" t="s">
+      <c r="E1074" t="s">
         <v>4458</v>
-      </c>
-      <c r="E1074" t="s">
-        <v>4459</v>
       </c>
       <c r="F1074" t="s">
         <v>12</v>
@@ -39225,19 +39224,19 @@
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
+        <v>4459</v>
+      </c>
+      <c r="B1075" t="s">
         <v>4460</v>
       </c>
-      <c r="B1075" t="s">
+      <c r="C1075" t="s">
         <v>4461</v>
       </c>
-      <c r="C1075" t="s">
+      <c r="D1075" t="s">
         <v>4462</v>
       </c>
-      <c r="D1075" t="s">
+      <c r="E1075" t="s">
         <v>4463</v>
-      </c>
-      <c r="E1075" t="s">
-        <v>4464</v>
       </c>
       <c r="F1075" t="s">
         <v>12</v>
@@ -39248,19 +39247,19 @@
     </row>
     <row r="1076" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B1076" t="s">
         <v>4465</v>
       </c>
-      <c r="B1076" t="s">
+      <c r="C1076" t="s">
         <v>4466</v>
       </c>
-      <c r="C1076" t="s">
+      <c r="D1076" t="s">
         <v>4467</v>
       </c>
-      <c r="D1076" t="s">
+      <c r="E1076" t="s">
         <v>4468</v>
-      </c>
-      <c r="E1076" t="s">
-        <v>4469</v>
       </c>
       <c r="F1076" t="s">
         <v>12</v>
@@ -39271,19 +39270,19 @@
     </row>
     <row r="1077" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B1077" t="s">
         <v>4470</v>
       </c>
-      <c r="B1077" t="s">
+      <c r="C1077" t="s">
         <v>4471</v>
       </c>
-      <c r="C1077" t="s">
+      <c r="D1077" t="s">
         <v>4472</v>
       </c>
-      <c r="D1077" t="s">
+      <c r="E1077" t="s">
         <v>4473</v>
-      </c>
-      <c r="E1077" t="s">
-        <v>4474</v>
       </c>
       <c r="F1077" t="s">
         <v>12</v>
@@ -39297,16 +39296,16 @@
         <v>7</v>
       </c>
       <c r="B1078" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C1078" t="s">
         <v>4475</v>
       </c>
-      <c r="C1078" t="s">
+      <c r="D1078" t="s">
         <v>4476</v>
       </c>
-      <c r="D1078" t="s">
+      <c r="E1078" t="s">
         <v>4477</v>
-      </c>
-      <c r="E1078" t="s">
-        <v>4478</v>
       </c>
       <c r="F1078" t="s">
         <v>12</v>
@@ -39320,16 +39319,16 @@
         <v>7</v>
       </c>
       <c r="B1079" t="s">
+        <v>4478</v>
+      </c>
+      <c r="C1079" t="s">
         <v>4479</v>
       </c>
-      <c r="C1079" t="s">
+      <c r="D1079" t="s">
         <v>4480</v>
       </c>
-      <c r="D1079" t="s">
+      <c r="E1079" t="s">
         <v>4481</v>
-      </c>
-      <c r="E1079" t="s">
-        <v>4482</v>
       </c>
       <c r="F1079" t="s">
         <v>12</v>
@@ -39340,19 +39339,19 @@
     </row>
     <row r="1080" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B1080" t="s">
         <v>4483</v>
       </c>
-      <c r="B1080" t="s">
+      <c r="C1080" t="s">
         <v>4484</v>
       </c>
-      <c r="C1080" t="s">
+      <c r="D1080" t="s">
         <v>4485</v>
       </c>
-      <c r="D1080" t="s">
+      <c r="E1080" t="s">
         <v>4486</v>
-      </c>
-      <c r="E1080" t="s">
-        <v>4487</v>
       </c>
       <c r="F1080" t="s">
         <v>12</v>
@@ -39363,19 +39362,19 @@
     </row>
     <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B1081" t="s">
         <v>4488</v>
       </c>
-      <c r="B1081" t="s">
+      <c r="C1081" t="s">
         <v>4489</v>
       </c>
-      <c r="C1081" t="s">
+      <c r="D1081" t="s">
         <v>4490</v>
       </c>
-      <c r="D1081" t="s">
+      <c r="E1081" t="s">
         <v>4491</v>
-      </c>
-      <c r="E1081" t="s">
-        <v>4492</v>
       </c>
       <c r="F1081" t="s">
         <v>12</v>
@@ -39389,13 +39388,13 @@
         <v>7</v>
       </c>
       <c r="B1082" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D1082" t="s">
         <v>4493</v>
       </c>
-      <c r="D1082" t="s">
+      <c r="E1082" t="s">
         <v>4494</v>
-      </c>
-      <c r="E1082" t="s">
-        <v>4495</v>
       </c>
       <c r="F1082" t="s">
         <v>30</v>
@@ -39409,16 +39408,16 @@
         <v>7</v>
       </c>
       <c r="B1083" t="s">
+        <v>4495</v>
+      </c>
+      <c r="C1083" t="s">
         <v>4496</v>
       </c>
-      <c r="C1083" t="s">
+      <c r="D1083" t="s">
         <v>4497</v>
       </c>
-      <c r="D1083" t="s">
+      <c r="E1083" t="s">
         <v>4498</v>
-      </c>
-      <c r="E1083" t="s">
-        <v>4499</v>
       </c>
       <c r="F1083" t="s">
         <v>30</v>
@@ -39432,16 +39431,16 @@
         <v>7</v>
       </c>
       <c r="B1084" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C1084" t="s">
         <v>4500</v>
       </c>
-      <c r="C1084" t="s">
+      <c r="D1084" t="s">
         <v>4501</v>
       </c>
-      <c r="D1084" t="s">
+      <c r="E1084" t="s">
         <v>4502</v>
-      </c>
-      <c r="E1084" t="s">
-        <v>4503</v>
       </c>
       <c r="F1084" t="s">
         <v>30</v>
@@ -39455,16 +39454,16 @@
         <v>7</v>
       </c>
       <c r="B1085" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C1085" t="s">
         <v>4504</v>
       </c>
-      <c r="C1085" t="s">
+      <c r="D1085" t="s">
         <v>4505</v>
       </c>
-      <c r="D1085" t="s">
+      <c r="E1085" t="s">
         <v>4506</v>
-      </c>
-      <c r="E1085" t="s">
-        <v>4507</v>
       </c>
       <c r="F1085" t="s">
         <v>30</v>
@@ -39478,16 +39477,16 @@
         <v>7</v>
       </c>
       <c r="B1086" t="s">
+        <v>4507</v>
+      </c>
+      <c r="C1086" t="s">
         <v>4508</v>
       </c>
-      <c r="C1086" t="s">
+      <c r="D1086" t="s">
         <v>4509</v>
       </c>
-      <c r="D1086" t="s">
+      <c r="E1086" t="s">
         <v>4510</v>
-      </c>
-      <c r="E1086" t="s">
-        <v>4511</v>
       </c>
       <c r="F1086" t="s">
         <v>30</v>
@@ -39501,16 +39500,16 @@
         <v>7</v>
       </c>
       <c r="B1087" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C1087" t="s">
         <v>4512</v>
       </c>
-      <c r="C1087" t="s">
+      <c r="D1087" t="s">
         <v>4513</v>
       </c>
-      <c r="D1087" t="s">
+      <c r="E1087" t="s">
         <v>4514</v>
-      </c>
-      <c r="E1087" t="s">
-        <v>4515</v>
       </c>
       <c r="F1087" t="s">
         <v>30</v>
@@ -39524,13 +39523,13 @@
         <v>7</v>
       </c>
       <c r="B1088" t="s">
+        <v>4515</v>
+      </c>
+      <c r="D1088" t="s">
         <v>4516</v>
       </c>
-      <c r="D1088" t="s">
+      <c r="E1088" t="s">
         <v>4517</v>
-      </c>
-      <c r="E1088" t="s">
-        <v>4518</v>
       </c>
       <c r="F1088" t="s">
         <v>30</v>
@@ -39544,16 +39543,16 @@
         <v>7</v>
       </c>
       <c r="B1089" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C1089" s="1" t="s">
         <v>4519</v>
       </c>
-      <c r="C1089" s="1" t="s">
+      <c r="D1089" t="s">
         <v>4520</v>
       </c>
-      <c r="D1089" t="s">
+      <c r="E1089" s="1" t="s">
         <v>4521</v>
-      </c>
-      <c r="E1089" s="1" t="s">
-        <v>4522</v>
       </c>
       <c r="F1089" t="s">
         <v>30</v>
@@ -39567,16 +39566,16 @@
         <v>7</v>
       </c>
       <c r="B1090" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C1090" t="s">
         <v>4523</v>
       </c>
-      <c r="C1090" t="s">
+      <c r="D1090" t="s">
         <v>4524</v>
       </c>
-      <c r="D1090" t="s">
+      <c r="E1090" t="s">
         <v>4525</v>
-      </c>
-      <c r="E1090" t="s">
-        <v>4526</v>
       </c>
       <c r="F1090" t="s">
         <v>30</v>
@@ -39590,16 +39589,16 @@
         <v>7</v>
       </c>
       <c r="B1091" t="s">
+        <v>4526</v>
+      </c>
+      <c r="C1091" t="s">
         <v>4527</v>
       </c>
-      <c r="C1091" t="s">
+      <c r="D1091" t="s">
         <v>4528</v>
       </c>
-      <c r="D1091" t="s">
+      <c r="E1091" t="s">
         <v>4529</v>
-      </c>
-      <c r="E1091" t="s">
-        <v>4530</v>
       </c>
       <c r="F1091" t="s">
         <v>30</v>
@@ -39613,16 +39612,16 @@
         <v>7</v>
       </c>
       <c r="B1092" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C1092" t="s">
         <v>4531</v>
       </c>
-      <c r="C1092" t="s">
+      <c r="D1092" t="s">
         <v>4532</v>
       </c>
-      <c r="D1092" t="s">
+      <c r="E1092" t="s">
         <v>4533</v>
-      </c>
-      <c r="E1092" t="s">
-        <v>4534</v>
       </c>
       <c r="F1092" t="s">
         <v>30</v>
@@ -39636,16 +39635,16 @@
         <v>7</v>
       </c>
       <c r="B1093" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C1093" t="s">
         <v>4535</v>
       </c>
-      <c r="C1093" s="2" t="s">
+      <c r="D1093" t="s">
         <v>4536</v>
       </c>
-      <c r="D1093" t="s">
+      <c r="E1093" t="s">
         <v>4537</v>
-      </c>
-      <c r="E1093" s="2" t="s">
-        <v>4538</v>
       </c>
       <c r="F1093" t="s">
         <v>30</v>
@@ -39659,13 +39658,13 @@
         <v>7</v>
       </c>
       <c r="B1094" t="s">
+        <v>4538</v>
+      </c>
+      <c r="D1094" t="s">
         <v>4539</v>
       </c>
-      <c r="D1094" t="s">
+      <c r="E1094" t="s">
         <v>4540</v>
-      </c>
-      <c r="E1094" t="s">
-        <v>4541</v>
       </c>
       <c r="F1094" t="s">
         <v>30</v>
@@ -39679,16 +39678,16 @@
         <v>7</v>
       </c>
       <c r="B1095" t="s">
+        <v>4541</v>
+      </c>
+      <c r="C1095" t="s">
         <v>4542</v>
       </c>
-      <c r="C1095" t="s">
+      <c r="D1095" t="s">
         <v>4543</v>
       </c>
-      <c r="D1095" t="s">
+      <c r="E1095" t="s">
         <v>4544</v>
-      </c>
-      <c r="E1095" t="s">
-        <v>4545</v>
       </c>
       <c r="F1095" t="s">
         <v>30</v>
@@ -39702,13 +39701,13 @@
         <v>7</v>
       </c>
       <c r="B1096" t="s">
+        <v>4545</v>
+      </c>
+      <c r="D1096" t="s">
         <v>4546</v>
       </c>
-      <c r="D1096" t="s">
+      <c r="E1096" t="s">
         <v>4547</v>
-      </c>
-      <c r="E1096" t="s">
-        <v>4548</v>
       </c>
       <c r="F1096" t="s">
         <v>30</v>
@@ -39722,16 +39721,16 @@
         <v>7</v>
       </c>
       <c r="B1097" t="s">
+        <v>4548</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>4548</v>
+      </c>
+      <c r="D1097" t="s">
         <v>4549</v>
       </c>
-      <c r="C1097" t="s">
-        <v>4549</v>
-      </c>
-      <c r="D1097" t="s">
+      <c r="E1097" t="s">
         <v>4550</v>
-      </c>
-      <c r="E1097" t="s">
-        <v>4551</v>
       </c>
       <c r="F1097" t="s">
         <v>30</v>
@@ -39745,13 +39744,13 @@
         <v>7</v>
       </c>
       <c r="B1098" t="s">
+        <v>4551</v>
+      </c>
+      <c r="D1098" t="s">
         <v>4552</v>
       </c>
-      <c r="D1098" t="s">
+      <c r="E1098" s="1" t="s">
         <v>4553</v>
-      </c>
-      <c r="E1098" s="1" t="s">
-        <v>4554</v>
       </c>
       <c r="F1098" t="s">
         <v>30</v>
@@ -39765,16 +39764,16 @@
         <v>7</v>
       </c>
       <c r="B1099" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C1099" t="s">
         <v>4555</v>
       </c>
-      <c r="C1099" t="s">
+      <c r="D1099" t="s">
         <v>4556</v>
       </c>
-      <c r="D1099" t="s">
+      <c r="E1099" t="s">
         <v>4557</v>
-      </c>
-      <c r="E1099" t="s">
-        <v>4558</v>
       </c>
       <c r="F1099" t="s">
         <v>30</v>
@@ -39788,16 +39787,16 @@
         <v>7</v>
       </c>
       <c r="B1100" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C1100" t="s">
         <v>4559</v>
       </c>
-      <c r="C1100" t="s">
+      <c r="D1100" t="s">
         <v>4560</v>
       </c>
-      <c r="D1100" t="s">
+      <c r="E1100" t="s">
         <v>4561</v>
-      </c>
-      <c r="E1100" t="s">
-        <v>4562</v>
       </c>
       <c r="F1100" t="s">
         <v>30</v>
@@ -39811,16 +39810,16 @@
         <v>7</v>
       </c>
       <c r="B1101" t="s">
+        <v>4562</v>
+      </c>
+      <c r="C1101" t="s">
         <v>4563</v>
       </c>
-      <c r="C1101" t="s">
+      <c r="D1101" t="s">
         <v>4564</v>
       </c>
-      <c r="D1101" t="s">
+      <c r="E1101" t="s">
         <v>4565</v>
-      </c>
-      <c r="E1101" t="s">
-        <v>4566</v>
       </c>
       <c r="F1101" t="s">
         <v>30</v>
@@ -39831,19 +39830,19 @@
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B1102" t="s">
         <v>4567</v>
       </c>
-      <c r="B1102" t="s">
+      <c r="C1102" t="s">
         <v>4568</v>
       </c>
-      <c r="C1102" t="s">
+      <c r="D1102" t="s">
         <v>4569</v>
       </c>
-      <c r="D1102" t="s">
+      <c r="E1102" s="1" t="s">
         <v>4570</v>
-      </c>
-      <c r="E1102" s="1" t="s">
-        <v>4571</v>
       </c>
       <c r="F1102" t="s">
         <v>12</v>
@@ -39857,16 +39856,16 @@
         <v>7</v>
       </c>
       <c r="B1103" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1103" t="s">
         <v>4572</v>
       </c>
-      <c r="C1103" t="s">
+      <c r="D1103" t="s">
         <v>4573</v>
       </c>
-      <c r="D1103" t="s">
+      <c r="E1103" s="1" t="s">
         <v>4574</v>
-      </c>
-      <c r="E1103" s="1" t="s">
-        <v>4575</v>
       </c>
       <c r="F1103" t="s">
         <v>12</v>
@@ -39880,13 +39879,13 @@
         <v>7</v>
       </c>
       <c r="B1104" t="s">
+        <v>4575</v>
+      </c>
+      <c r="D1104" t="s">
         <v>4576</v>
       </c>
-      <c r="D1104" t="s">
+      <c r="E1104" t="s">
         <v>4577</v>
-      </c>
-      <c r="E1104" t="s">
-        <v>4578</v>
       </c>
       <c r="F1104" t="s">
         <v>30</v>
@@ -39900,16 +39899,16 @@
         <v>336</v>
       </c>
       <c r="B1105" t="s">
+        <v>4578</v>
+      </c>
+      <c r="C1105" t="s">
         <v>4579</v>
       </c>
-      <c r="C1105" t="s">
+      <c r="D1105" t="s">
         <v>4580</v>
       </c>
-      <c r="D1105" t="s">
+      <c r="E1105" s="1" t="s">
         <v>4581</v>
-      </c>
-      <c r="E1105" s="1" t="s">
-        <v>4582</v>
       </c>
       <c r="F1105" t="s">
         <v>12</v>
@@ -39923,16 +39922,16 @@
         <v>7</v>
       </c>
       <c r="B1106" t="s">
+        <v>4582</v>
+      </c>
+      <c r="C1106" t="s">
         <v>4583</v>
       </c>
-      <c r="C1106" t="s">
+      <c r="D1106" t="s">
         <v>4584</v>
       </c>
-      <c r="D1106" t="s">
+      <c r="E1106" t="s">
         <v>4585</v>
-      </c>
-      <c r="E1106" s="2" t="s">
-        <v>4586</v>
       </c>
       <c r="F1106" t="s">
         <v>12</v>
@@ -39946,16 +39945,16 @@
         <v>7</v>
       </c>
       <c r="B1107" t="s">
+        <v>4586</v>
+      </c>
+      <c r="C1107" t="s">
         <v>4587</v>
       </c>
-      <c r="C1107" t="s">
+      <c r="D1107" t="s">
         <v>4588</v>
       </c>
-      <c r="D1107" t="s">
+      <c r="E1107" s="1" t="s">
         <v>4589</v>
-      </c>
-      <c r="E1107" s="1" t="s">
-        <v>4590</v>
       </c>
       <c r="F1107" t="s">
         <v>12</v>
@@ -39969,16 +39968,16 @@
         <v>7</v>
       </c>
       <c r="B1108" t="s">
+        <v>4590</v>
+      </c>
+      <c r="C1108" t="s">
         <v>4591</v>
       </c>
-      <c r="C1108" t="s">
+      <c r="D1108" t="s">
         <v>4592</v>
       </c>
-      <c r="D1108" t="s">
+      <c r="E1108" s="1" t="s">
         <v>4593</v>
-      </c>
-      <c r="E1108" s="1" t="s">
-        <v>4594</v>
       </c>
       <c r="F1108" t="s">
         <v>12</v>
@@ -39989,19 +39988,19 @@
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
+        <v>4594</v>
+      </c>
+      <c r="B1109" t="s">
         <v>4595</v>
       </c>
-      <c r="B1109" t="s">
+      <c r="C1109" t="s">
         <v>4596</v>
       </c>
-      <c r="C1109" t="s">
+      <c r="D1109" t="s">
         <v>4597</v>
       </c>
-      <c r="D1109" t="s">
+      <c r="E1109" t="s">
         <v>4598</v>
-      </c>
-      <c r="E1109" s="2" t="s">
-        <v>4599</v>
       </c>
       <c r="F1109" t="s">
         <v>12</v>
@@ -40015,16 +40014,16 @@
         <v>7</v>
       </c>
       <c r="B1110" t="s">
+        <v>4599</v>
+      </c>
+      <c r="C1110" t="s">
         <v>4600</v>
       </c>
-      <c r="C1110" t="s">
+      <c r="D1110" t="s">
         <v>4601</v>
       </c>
-      <c r="D1110" t="s">
+      <c r="E1110" t="s">
         <v>4602</v>
-      </c>
-      <c r="E1110" t="s">
-        <v>4603</v>
       </c>
       <c r="F1110" t="s">
         <v>12</v>
@@ -40038,13 +40037,13 @@
         <v>7</v>
       </c>
       <c r="B1111" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D1111" t="s">
         <v>4604</v>
       </c>
-      <c r="D1111" t="s">
+      <c r="E1111" t="s">
         <v>4605</v>
-      </c>
-      <c r="E1111" s="2" t="s">
-        <v>4606</v>
       </c>
       <c r="F1111" t="s">
         <v>30</v>
@@ -40058,13 +40057,13 @@
         <v>7</v>
       </c>
       <c r="C1112" t="s">
+        <v>4606</v>
+      </c>
+      <c r="D1112" t="s">
         <v>4607</v>
       </c>
-      <c r="D1112" t="s">
+      <c r="E1112" t="s">
         <v>4608</v>
-      </c>
-      <c r="E1112" s="2" t="s">
-        <v>4609</v>
       </c>
       <c r="F1112" t="s">
         <v>12</v>
@@ -40078,13 +40077,13 @@
         <v>7</v>
       </c>
       <c r="B1113" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D1113" t="s">
         <v>4610</v>
       </c>
-      <c r="D1113" t="s">
+      <c r="E1113" t="s">
         <v>4611</v>
-      </c>
-      <c r="E1113" t="s">
-        <v>4612</v>
       </c>
       <c r="F1113" t="s">
         <v>12</v>
@@ -40098,13 +40097,13 @@
         <v>7</v>
       </c>
       <c r="C1114" t="s">
+        <v>4612</v>
+      </c>
+      <c r="D1114" t="s">
         <v>4613</v>
       </c>
-      <c r="D1114" t="s">
+      <c r="E1114" t="s">
         <v>4614</v>
-      </c>
-      <c r="E1114" t="s">
-        <v>4615</v>
       </c>
       <c r="F1114" t="s">
         <v>12</v>
@@ -40118,13 +40117,13 @@
         <v>7</v>
       </c>
       <c r="C1115" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D1115" t="s">
         <v>4616</v>
       </c>
-      <c r="D1115" t="s">
+      <c r="E1115" t="s">
         <v>4617</v>
-      </c>
-      <c r="E1115" t="s">
-        <v>4618</v>
       </c>
       <c r="F1115" t="s">
         <v>12</v>
@@ -40135,19 +40134,19 @@
     </row>
     <row r="1116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
+        <v>4618</v>
+      </c>
+      <c r="B1116" t="s">
         <v>4619</v>
       </c>
-      <c r="B1116" t="s">
+      <c r="C1116" t="s">
         <v>4620</v>
       </c>
-      <c r="C1116" t="s">
+      <c r="D1116" t="s">
         <v>4621</v>
       </c>
-      <c r="D1116" t="s">
+      <c r="E1116" t="s">
         <v>4622</v>
-      </c>
-      <c r="E1116" t="s">
-        <v>4623</v>
       </c>
       <c r="F1116" t="s">
         <v>12</v>
@@ -40158,19 +40157,19 @@
     </row>
     <row r="1117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B1117" t="s">
         <v>4624</v>
       </c>
-      <c r="B1117" t="s">
+      <c r="C1117" t="s">
         <v>4625</v>
       </c>
-      <c r="C1117" t="s">
+      <c r="D1117" t="s">
         <v>4626</v>
       </c>
-      <c r="D1117" t="s">
+      <c r="E1117" t="s">
         <v>4627</v>
-      </c>
-      <c r="E1117" t="s">
-        <v>4628</v>
       </c>
       <c r="F1117" t="s">
         <v>12</v>
@@ -40181,19 +40180,19 @@
     </row>
     <row r="1118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B1118" t="s">
         <v>4629</v>
       </c>
-      <c r="B1118" t="s">
+      <c r="C1118" t="s">
         <v>4630</v>
       </c>
-      <c r="C1118" t="s">
+      <c r="D1118" t="s">
         <v>4631</v>
       </c>
-      <c r="D1118" t="s">
+      <c r="E1118" t="s">
         <v>4632</v>
-      </c>
-      <c r="E1118" t="s">
-        <v>4633</v>
       </c>
       <c r="F1118" t="s">
         <v>12</v>
@@ -40204,19 +40203,19 @@
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B1119" t="s">
         <v>4634</v>
       </c>
-      <c r="B1119" t="s">
+      <c r="C1119" t="s">
         <v>4635</v>
       </c>
-      <c r="C1119" t="s">
+      <c r="D1119" t="s">
         <v>4636</v>
       </c>
-      <c r="D1119" t="s">
+      <c r="E1119" t="s">
         <v>4637</v>
-      </c>
-      <c r="E1119" t="s">
-        <v>4638</v>
       </c>
       <c r="F1119" t="s">
         <v>12</v>
@@ -40227,19 +40226,19 @@
     </row>
     <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
+        <v>4638</v>
+      </c>
+      <c r="B1120" t="s">
         <v>4639</v>
       </c>
-      <c r="B1120" t="s">
+      <c r="C1120" t="s">
         <v>4640</v>
       </c>
-      <c r="C1120" t="s">
+      <c r="D1120" t="s">
         <v>4641</v>
       </c>
-      <c r="D1120" t="s">
+      <c r="E1120" t="s">
         <v>4642</v>
-      </c>
-      <c r="E1120" t="s">
-        <v>4643</v>
       </c>
       <c r="F1120" t="s">
         <v>12</v>
@@ -40250,19 +40249,19 @@
     </row>
     <row r="1121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
+        <v>4643</v>
+      </c>
+      <c r="B1121" t="s">
         <v>4644</v>
       </c>
-      <c r="B1121" t="s">
+      <c r="C1121" t="s">
         <v>4645</v>
       </c>
-      <c r="C1121" t="s">
+      <c r="D1121" t="s">
         <v>4646</v>
       </c>
-      <c r="D1121" t="s">
+      <c r="E1121" t="s">
         <v>4647</v>
-      </c>
-      <c r="E1121" t="s">
-        <v>4648</v>
       </c>
       <c r="F1121" t="s">
         <v>12</v>
@@ -40276,16 +40275,16 @@
         <v>7</v>
       </c>
       <c r="B1122" t="s">
+        <v>4648</v>
+      </c>
+      <c r="C1122" t="s">
         <v>4649</v>
       </c>
-      <c r="C1122" t="s">
+      <c r="D1122" t="s">
         <v>4650</v>
       </c>
-      <c r="D1122" t="s">
+      <c r="E1122" t="s">
         <v>4651</v>
-      </c>
-      <c r="E1122" t="s">
-        <v>4652</v>
       </c>
       <c r="F1122" t="s">
         <v>12</v>
@@ -40299,16 +40298,16 @@
         <v>7</v>
       </c>
       <c r="B1123" t="s">
+        <v>4652</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>4652</v>
+      </c>
+      <c r="D1123" t="s">
         <v>4653</v>
       </c>
-      <c r="C1123" t="s">
-        <v>4653</v>
-      </c>
-      <c r="D1123" t="s">
+      <c r="E1123" t="s">
         <v>4654</v>
-      </c>
-      <c r="E1123" t="s">
-        <v>4655</v>
       </c>
       <c r="F1123" t="s">
         <v>30</v>
@@ -40322,16 +40321,16 @@
         <v>7</v>
       </c>
       <c r="B1124" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C1124" t="s">
         <v>4656</v>
       </c>
-      <c r="C1124" t="s">
+      <c r="D1124" t="s">
         <v>4657</v>
       </c>
-      <c r="D1124" t="s">
+      <c r="E1124" t="s">
         <v>4658</v>
-      </c>
-      <c r="E1124" t="s">
-        <v>4659</v>
       </c>
       <c r="F1124" t="s">
         <v>12</v>
@@ -40345,13 +40344,13 @@
         <v>7</v>
       </c>
       <c r="B1125" t="s">
+        <v>4659</v>
+      </c>
+      <c r="D1125" t="s">
         <v>4660</v>
       </c>
-      <c r="D1125" t="s">
+      <c r="E1125" t="s">
         <v>4661</v>
-      </c>
-      <c r="E1125" t="s">
-        <v>4662</v>
       </c>
       <c r="F1125" t="s">
         <v>30</v>
@@ -40365,16 +40364,16 @@
         <v>7</v>
       </c>
       <c r="B1126" t="s">
+        <v>4662</v>
+      </c>
+      <c r="C1126" t="s">
         <v>4663</v>
       </c>
-      <c r="C1126" t="s">
+      <c r="D1126" t="s">
         <v>4664</v>
       </c>
-      <c r="D1126" t="s">
+      <c r="E1126" t="s">
         <v>4665</v>
-      </c>
-      <c r="E1126" t="s">
-        <v>4666</v>
       </c>
       <c r="F1126" t="s">
         <v>12</v>
@@ -40388,16 +40387,16 @@
         <v>7</v>
       </c>
       <c r="B1127" t="s">
+        <v>4666</v>
+      </c>
+      <c r="C1127" t="s">
         <v>4667</v>
       </c>
-      <c r="C1127" t="s">
+      <c r="D1127" t="s">
         <v>4668</v>
       </c>
-      <c r="D1127" t="s">
+      <c r="E1127" t="s">
         <v>4669</v>
-      </c>
-      <c r="E1127" t="s">
-        <v>4670</v>
       </c>
       <c r="F1127" t="s">
         <v>12</v>
@@ -40411,16 +40410,16 @@
         <v>2771</v>
       </c>
       <c r="B1128" t="s">
+        <v>4670</v>
+      </c>
+      <c r="C1128" t="s">
         <v>4671</v>
       </c>
-      <c r="C1128" t="s">
+      <c r="D1128" t="s">
         <v>4672</v>
       </c>
-      <c r="D1128" t="s">
+      <c r="E1128" t="s">
         <v>4673</v>
-      </c>
-      <c r="E1128" t="s">
-        <v>4674</v>
       </c>
       <c r="F1128" t="s">
         <v>12</v>
@@ -40434,16 +40433,16 @@
         <v>7</v>
       </c>
       <c r="B1129" t="s">
+        <v>4674</v>
+      </c>
+      <c r="C1129" t="s">
         <v>4675</v>
       </c>
-      <c r="C1129" t="s">
+      <c r="D1129" t="s">
         <v>4676</v>
       </c>
-      <c r="D1129" t="s">
+      <c r="E1129" t="s">
         <v>4677</v>
-      </c>
-      <c r="E1129" t="s">
-        <v>4678</v>
       </c>
       <c r="F1129" t="s">
         <v>12</v>
@@ -40457,16 +40456,16 @@
         <v>7</v>
       </c>
       <c r="B1130" t="s">
+        <v>4678</v>
+      </c>
+      <c r="C1130" t="s">
         <v>4679</v>
       </c>
-      <c r="C1130" t="s">
+      <c r="D1130" t="s">
         <v>4680</v>
       </c>
-      <c r="D1130" t="s">
+      <c r="E1130" t="s">
         <v>4681</v>
-      </c>
-      <c r="E1130" t="s">
-        <v>4682</v>
       </c>
       <c r="F1130" t="s">
         <v>12</v>
@@ -40477,19 +40476,19 @@
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B1131" t="s">
         <v>4683</v>
       </c>
-      <c r="B1131" t="s">
+      <c r="C1131" t="s">
         <v>4684</v>
       </c>
-      <c r="C1131" t="s">
+      <c r="D1131" t="s">
         <v>4685</v>
       </c>
-      <c r="D1131" t="s">
+      <c r="E1131" t="s">
         <v>4686</v>
-      </c>
-      <c r="E1131" t="s">
-        <v>4687</v>
       </c>
       <c r="F1131" t="s">
         <v>12</v>
@@ -40500,19 +40499,19 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B1132" t="s">
         <v>4688</v>
       </c>
-      <c r="B1132" t="s">
+      <c r="C1132" t="s">
         <v>4689</v>
       </c>
-      <c r="C1132" t="s">
+      <c r="D1132" t="s">
         <v>4690</v>
       </c>
-      <c r="D1132" t="s">
+      <c r="E1132" t="s">
         <v>4691</v>
-      </c>
-      <c r="E1132" t="s">
-        <v>4692</v>
       </c>
       <c r="F1132" t="s">
         <v>12</v>
@@ -40526,16 +40525,16 @@
         <v>7</v>
       </c>
       <c r="B1133" t="s">
+        <v>4692</v>
+      </c>
+      <c r="C1133" t="s">
         <v>4693</v>
       </c>
-      <c r="C1133" t="s">
+      <c r="D1133" t="s">
         <v>4694</v>
       </c>
-      <c r="D1133" t="s">
+      <c r="E1133" t="s">
         <v>4695</v>
-      </c>
-      <c r="E1133" t="s">
-        <v>4696</v>
       </c>
       <c r="F1133" t="s">
         <v>12</v>
@@ -40549,16 +40548,16 @@
         <v>7</v>
       </c>
       <c r="B1134" t="s">
+        <v>4696</v>
+      </c>
+      <c r="C1134" t="s">
         <v>4697</v>
       </c>
-      <c r="C1134" t="s">
+      <c r="D1134" t="s">
         <v>4698</v>
       </c>
-      <c r="D1134" t="s">
+      <c r="E1134" t="s">
         <v>4699</v>
-      </c>
-      <c r="E1134" t="s">
-        <v>4700</v>
       </c>
       <c r="F1134" t="s">
         <v>12</v>
@@ -40569,19 +40568,19 @@
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B1135" t="s">
         <v>4701</v>
       </c>
-      <c r="B1135" t="s">
+      <c r="C1135" t="s">
         <v>4702</v>
       </c>
-      <c r="C1135" t="s">
+      <c r="D1135" t="s">
         <v>4703</v>
       </c>
-      <c r="D1135" t="s">
+      <c r="E1135" t="s">
         <v>4704</v>
-      </c>
-      <c r="E1135" t="s">
-        <v>4705</v>
       </c>
       <c r="F1135" t="s">
         <v>12</v>
@@ -40592,19 +40591,19 @@
     </row>
     <row r="1136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B1136" t="s">
         <v>4706</v>
       </c>
-      <c r="B1136" t="s">
+      <c r="C1136" t="s">
         <v>4707</v>
       </c>
-      <c r="C1136" t="s">
+      <c r="D1136" t="s">
         <v>4708</v>
       </c>
-      <c r="D1136" t="s">
+      <c r="E1136" t="s">
         <v>4709</v>
-      </c>
-      <c r="E1136" t="s">
-        <v>4710</v>
       </c>
       <c r="F1136" t="s">
         <v>12</v>
@@ -40618,16 +40617,16 @@
         <v>7</v>
       </c>
       <c r="B1137" t="s">
+        <v>4710</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>4710</v>
+      </c>
+      <c r="D1137" t="s">
         <v>4711</v>
       </c>
-      <c r="C1137" t="s">
-        <v>4711</v>
-      </c>
-      <c r="D1137" t="s">
+      <c r="E1137" t="s">
         <v>4712</v>
-      </c>
-      <c r="E1137" t="s">
-        <v>4713</v>
       </c>
       <c r="F1137" t="s">
         <v>30</v>
@@ -40641,16 +40640,16 @@
         <v>7</v>
       </c>
       <c r="B1138" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C1138" t="s">
         <v>4714</v>
       </c>
-      <c r="C1138" t="s">
+      <c r="D1138" t="s">
         <v>4715</v>
       </c>
-      <c r="D1138" t="s">
+      <c r="E1138" t="s">
         <v>4716</v>
-      </c>
-      <c r="E1138" t="s">
-        <v>4717</v>
       </c>
       <c r="F1138" t="s">
         <v>30</v>
@@ -40664,16 +40663,16 @@
         <v>7</v>
       </c>
       <c r="B1139" t="s">
+        <v>4717</v>
+      </c>
+      <c r="C1139" t="s">
         <v>4718</v>
       </c>
-      <c r="C1139" t="s">
+      <c r="D1139" t="s">
         <v>4719</v>
       </c>
-      <c r="D1139" t="s">
+      <c r="E1139" t="s">
         <v>4720</v>
-      </c>
-      <c r="E1139" t="s">
-        <v>4721</v>
       </c>
       <c r="F1139" t="s">
         <v>12</v>
@@ -40687,16 +40686,16 @@
         <v>7</v>
       </c>
       <c r="B1140" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C1140" t="s">
         <v>4722</v>
       </c>
-      <c r="C1140" t="s">
+      <c r="D1140" t="s">
         <v>4723</v>
       </c>
-      <c r="D1140" t="s">
+      <c r="E1140" t="s">
         <v>4724</v>
-      </c>
-      <c r="E1140" t="s">
-        <v>4725</v>
       </c>
       <c r="F1140" t="s">
         <v>12</v>
@@ -40707,19 +40706,19 @@
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B1141" t="s">
         <v>4726</v>
       </c>
-      <c r="B1141" t="s">
+      <c r="C1141" t="s">
         <v>4727</v>
       </c>
-      <c r="C1141" t="s">
+      <c r="D1141" t="s">
         <v>4728</v>
       </c>
-      <c r="D1141" t="s">
+      <c r="E1141" t="s">
         <v>4729</v>
-      </c>
-      <c r="E1141" t="s">
-        <v>4730</v>
       </c>
       <c r="F1141" t="s">
         <v>12</v>
@@ -40733,16 +40732,16 @@
         <v>7</v>
       </c>
       <c r="B1142" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C1142" t="s">
         <v>4731</v>
       </c>
-      <c r="C1142" t="s">
+      <c r="D1142" t="s">
         <v>4732</v>
       </c>
-      <c r="D1142" t="s">
+      <c r="E1142" t="s">
         <v>4733</v>
-      </c>
-      <c r="E1142" t="s">
-        <v>4734</v>
       </c>
       <c r="F1142" t="s">
         <v>12</v>
@@ -40756,16 +40755,16 @@
         <v>7</v>
       </c>
       <c r="B1143" t="s">
+        <v>4734</v>
+      </c>
+      <c r="C1143" t="s">
         <v>4735</v>
       </c>
-      <c r="C1143" t="s">
+      <c r="D1143" t="s">
         <v>4736</v>
       </c>
-      <c r="D1143" t="s">
+      <c r="E1143" s="1" t="s">
         <v>4737</v>
-      </c>
-      <c r="E1143" s="1" t="s">
-        <v>4738</v>
       </c>
       <c r="F1143" t="s">
         <v>12</v>
@@ -40776,19 +40775,19 @@
     </row>
     <row r="1144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
+        <v>4738</v>
+      </c>
+      <c r="B1144" t="s">
         <v>4739</v>
       </c>
-      <c r="B1144" t="s">
+      <c r="C1144" t="s">
         <v>4740</v>
       </c>
-      <c r="C1144" t="s">
+      <c r="D1144" t="s">
         <v>4741</v>
       </c>
-      <c r="D1144" t="s">
+      <c r="E1144" t="s">
         <v>4742</v>
-      </c>
-      <c r="E1144" t="s">
-        <v>4743</v>
       </c>
       <c r="F1144" t="s">
         <v>12</v>
@@ -40799,19 +40798,19 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B1145" t="s">
         <v>4744</v>
       </c>
-      <c r="B1145" t="s">
+      <c r="C1145" t="s">
         <v>4745</v>
       </c>
-      <c r="C1145" t="s">
+      <c r="D1145" t="s">
         <v>4746</v>
       </c>
-      <c r="D1145" t="s">
+      <c r="E1145" t="s">
         <v>4747</v>
-      </c>
-      <c r="E1145" t="s">
-        <v>4748</v>
       </c>
       <c r="F1145" t="s">
         <v>12</v>
@@ -40825,16 +40824,16 @@
         <v>7</v>
       </c>
       <c r="B1146" t="s">
+        <v>4823</v>
+      </c>
+      <c r="C1146" t="s">
         <v>4824</v>
       </c>
-      <c r="C1146" t="s">
+      <c r="D1146" t="s">
         <v>4825</v>
       </c>
-      <c r="D1146" t="s">
+      <c r="E1146" t="s">
         <v>4826</v>
-      </c>
-      <c r="E1146" t="s">
-        <v>4827</v>
       </c>
       <c r="F1146" t="s">
         <v>12</v>
@@ -40848,16 +40847,16 @@
         <v>7</v>
       </c>
       <c r="B1147" t="s">
+        <v>4748</v>
+      </c>
+      <c r="C1147" t="s">
         <v>4749</v>
       </c>
-      <c r="C1147" t="s">
+      <c r="D1147" t="s">
         <v>4750</v>
       </c>
-      <c r="D1147" t="s">
+      <c r="E1147" t="s">
         <v>4751</v>
-      </c>
-      <c r="E1147" t="s">
-        <v>4752</v>
       </c>
       <c r="F1147" t="s">
         <v>12</v>
@@ -40871,16 +40870,16 @@
         <v>7</v>
       </c>
       <c r="B1148" t="s">
+        <v>4752</v>
+      </c>
+      <c r="C1148" t="s">
         <v>4753</v>
       </c>
-      <c r="C1148" t="s">
+      <c r="D1148" t="s">
         <v>4754</v>
       </c>
-      <c r="D1148" t="s">
+      <c r="E1148" t="s">
         <v>4755</v>
-      </c>
-      <c r="E1148" s="2" t="s">
-        <v>4756</v>
       </c>
       <c r="F1148" t="s">
         <v>30</v>
@@ -40894,16 +40893,16 @@
         <v>336</v>
       </c>
       <c r="B1149" t="s">
+        <v>4756</v>
+      </c>
+      <c r="C1149" t="s">
         <v>4757</v>
       </c>
-      <c r="C1149" t="s">
+      <c r="D1149" t="s">
         <v>4758</v>
       </c>
-      <c r="D1149" t="s">
+      <c r="E1149" t="s">
         <v>4759</v>
-      </c>
-      <c r="E1149" t="s">
-        <v>4760</v>
       </c>
       <c r="F1149" t="s">
         <v>12</v>
@@ -40917,16 +40916,16 @@
         <v>7</v>
       </c>
       <c r="B1150" t="s">
+        <v>4760</v>
+      </c>
+      <c r="C1150" t="s">
         <v>4761</v>
       </c>
-      <c r="C1150" t="s">
+      <c r="D1150" t="s">
         <v>4762</v>
       </c>
-      <c r="D1150" t="s">
+      <c r="E1150" t="s">
         <v>4763</v>
-      </c>
-      <c r="E1150" t="s">
-        <v>4764</v>
       </c>
       <c r="F1150" t="s">
         <v>12</v>
@@ -40937,19 +40936,19 @@
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="B1151" t="s">
+        <v>4764</v>
+      </c>
+      <c r="C1151" t="s">
         <v>4765</v>
       </c>
-      <c r="C1151" t="s">
+      <c r="D1151" t="s">
         <v>4766</v>
       </c>
-      <c r="D1151" t="s">
+      <c r="E1151" t="s">
         <v>4767</v>
-      </c>
-      <c r="E1151" t="s">
-        <v>4768</v>
       </c>
       <c r="F1151" t="s">
         <v>12</v>
@@ -40960,19 +40959,19 @@
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B1152" t="s">
         <v>4769</v>
       </c>
-      <c r="B1152" t="s">
+      <c r="C1152" t="s">
         <v>4770</v>
       </c>
-      <c r="C1152" t="s">
+      <c r="D1152" t="s">
         <v>4771</v>
       </c>
-      <c r="D1152" t="s">
+      <c r="E1152" t="s">
         <v>4772</v>
-      </c>
-      <c r="E1152" t="s">
-        <v>4773</v>
       </c>
       <c r="F1152" t="s">
         <v>12</v>
@@ -40983,19 +40982,19 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B1153" t="s">
         <v>4774</v>
       </c>
-      <c r="B1153" t="s">
+      <c r="C1153" t="s">
         <v>4775</v>
       </c>
-      <c r="C1153" t="s">
+      <c r="D1153" t="s">
         <v>4776</v>
       </c>
-      <c r="D1153" t="s">
+      <c r="E1153" t="s">
         <v>4777</v>
-      </c>
-      <c r="E1153" t="s">
-        <v>4778</v>
       </c>
       <c r="F1153" t="s">
         <v>12</v>
@@ -41006,19 +41005,19 @@
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B1154" t="s">
         <v>4779</v>
       </c>
-      <c r="B1154" t="s">
+      <c r="C1154" t="s">
         <v>4780</v>
       </c>
-      <c r="C1154" t="s">
+      <c r="D1154" t="s">
         <v>4781</v>
       </c>
-      <c r="D1154" t="s">
+      <c r="E1154" t="s">
         <v>4782</v>
-      </c>
-      <c r="E1154" t="s">
-        <v>4783</v>
       </c>
       <c r="F1154" t="s">
         <v>12</v>
@@ -41032,16 +41031,16 @@
         <v>7</v>
       </c>
       <c r="B1155" t="s">
+        <v>4783</v>
+      </c>
+      <c r="C1155" t="s">
         <v>4784</v>
       </c>
-      <c r="C1155" t="s">
+      <c r="D1155" t="s">
         <v>4785</v>
       </c>
-      <c r="D1155" t="s">
+      <c r="E1155" t="s">
         <v>4786</v>
-      </c>
-      <c r="E1155" t="s">
-        <v>4787</v>
       </c>
       <c r="F1155" t="s">
         <v>12</v>
@@ -41055,16 +41054,16 @@
         <v>7</v>
       </c>
       <c r="B1156" t="s">
+        <v>4787</v>
+      </c>
+      <c r="C1156" t="s">
         <v>4788</v>
       </c>
-      <c r="C1156" t="s">
+      <c r="D1156" t="s">
         <v>4789</v>
       </c>
-      <c r="D1156" t="s">
+      <c r="E1156" t="s">
         <v>4790</v>
-      </c>
-      <c r="E1156" t="s">
-        <v>4791</v>
       </c>
       <c r="F1156" t="s">
         <v>30</v>
@@ -41078,16 +41077,16 @@
         <v>2390</v>
       </c>
       <c r="B1157" t="s">
+        <v>4791</v>
+      </c>
+      <c r="C1157" t="s">
         <v>4792</v>
       </c>
-      <c r="C1157" t="s">
+      <c r="D1157" t="s">
         <v>4793</v>
       </c>
-      <c r="D1157" t="s">
+      <c r="E1157" t="s">
         <v>4794</v>
-      </c>
-      <c r="E1157" t="s">
-        <v>4795</v>
       </c>
       <c r="F1157" t="s">
         <v>12</v>
@@ -41101,16 +41100,16 @@
         <v>7</v>
       </c>
       <c r="B1158" t="s">
+        <v>4795</v>
+      </c>
+      <c r="C1158" t="s">
         <v>4796</v>
       </c>
-      <c r="C1158" t="s">
+      <c r="D1158" t="s">
         <v>4797</v>
       </c>
-      <c r="D1158" t="s">
+      <c r="E1158" t="s">
         <v>4798</v>
-      </c>
-      <c r="E1158" t="s">
-        <v>4799</v>
       </c>
       <c r="F1158" t="s">
         <v>12</v>
@@ -41121,19 +41120,19 @@
     </row>
     <row r="1159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
+        <v>4799</v>
+      </c>
+      <c r="B1159" t="s">
         <v>4800</v>
       </c>
-      <c r="B1159" t="s">
+      <c r="C1159" t="s">
         <v>4801</v>
       </c>
-      <c r="C1159" t="s">
+      <c r="D1159" t="s">
         <v>4802</v>
       </c>
-      <c r="D1159" t="s">
+      <c r="E1159" t="s">
         <v>4803</v>
-      </c>
-      <c r="E1159" t="s">
-        <v>4804</v>
       </c>
       <c r="F1159" t="s">
         <v>12</v>
@@ -41147,16 +41146,16 @@
         <v>7</v>
       </c>
       <c r="B1160" t="s">
+        <v>4804</v>
+      </c>
+      <c r="C1160" t="s">
         <v>4805</v>
       </c>
-      <c r="C1160" t="s">
+      <c r="D1160" t="s">
         <v>4806</v>
       </c>
-      <c r="D1160" t="s">
+      <c r="E1160" t="s">
         <v>4807</v>
-      </c>
-      <c r="E1160" t="s">
-        <v>4808</v>
       </c>
       <c r="F1160" t="s">
         <v>12</v>
